--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spon2-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spon2-Itga5.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6392876666666667</v>
+        <v>1.150782</v>
       </c>
       <c r="H2">
-        <v>1.917863</v>
+        <v>3.452345999999999</v>
       </c>
       <c r="I2">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="J2">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N2">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q2">
-        <v>19.96429195416911</v>
+        <v>52.82773251383199</v>
       </c>
       <c r="R2">
-        <v>179.678627587522</v>
+        <v>475.4495926244879</v>
       </c>
       <c r="S2">
-        <v>0.00626802767257064</v>
+        <v>0.01512210002605067</v>
       </c>
       <c r="T2">
-        <v>0.00626802767257064</v>
+        <v>0.01512210002605067</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6392876666666667</v>
+        <v>1.150782</v>
       </c>
       <c r="H3">
-        <v>1.917863</v>
+        <v>3.452345999999999</v>
       </c>
       <c r="I3">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="J3">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P3">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q3">
-        <v>25.85649002748045</v>
+        <v>46.54427866871199</v>
       </c>
       <c r="R3">
-        <v>232.7084102473241</v>
+        <v>418.8985080184079</v>
       </c>
       <c r="S3">
-        <v>0.00811795356328425</v>
+        <v>0.01332344214252144</v>
       </c>
       <c r="T3">
-        <v>0.008117953563284253</v>
+        <v>0.01332344214252144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6392876666666667</v>
+        <v>1.150782</v>
       </c>
       <c r="H4">
-        <v>1.917863</v>
+        <v>3.452345999999999</v>
       </c>
       <c r="I4">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="J4">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N4">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q4">
-        <v>7.35088141264589</v>
+        <v>14.68604397369</v>
       </c>
       <c r="R4">
-        <v>66.15793271381301</v>
+        <v>132.17439576321</v>
       </c>
       <c r="S4">
-        <v>0.002307896930080093</v>
+        <v>0.004203925010390521</v>
       </c>
       <c r="T4">
-        <v>0.002307896930080093</v>
+        <v>0.004203925010390521</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6392876666666667</v>
+        <v>1.150782</v>
       </c>
       <c r="H5">
-        <v>1.917863</v>
+        <v>3.452345999999999</v>
       </c>
       <c r="I5">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="J5">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N5">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q5">
-        <v>16.21849881215689</v>
+        <v>19.52503970475599</v>
       </c>
       <c r="R5">
-        <v>145.966489309412</v>
+        <v>175.725357342804</v>
       </c>
       <c r="S5">
-        <v>0.005091991220901993</v>
+        <v>0.005589102340340323</v>
       </c>
       <c r="T5">
-        <v>0.005091991220901995</v>
+        <v>0.005589102340340323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>82.78383700000001</v>
       </c>
       <c r="I6">
-        <v>0.9403788801510861</v>
+        <v>0.9169230158851821</v>
       </c>
       <c r="J6">
-        <v>0.9403788801510863</v>
+        <v>0.916923015885182</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N6">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q6">
-        <v>861.7511735480309</v>
+        <v>1266.756691682893</v>
       </c>
       <c r="R6">
-        <v>7755.760561932279</v>
+        <v>11400.81022514604</v>
       </c>
       <c r="S6">
-        <v>0.2705570633343347</v>
+        <v>0.3626129778574554</v>
       </c>
       <c r="T6">
-        <v>0.2705570633343348</v>
+        <v>0.3626129778574554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>82.78383700000001</v>
       </c>
       <c r="I7">
-        <v>0.9403788801510861</v>
+        <v>0.9169230158851821</v>
       </c>
       <c r="J7">
-        <v>0.9403788801510863</v>
+        <v>0.916923015885182</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P7">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q7">
         <v>1116.08569320492</v>
@@ -883,10 +883,10 @@
         <v>10044.77123884428</v>
       </c>
       <c r="S7">
-        <v>0.35040842049536</v>
+        <v>0.3194829436578564</v>
       </c>
       <c r="T7">
-        <v>0.3504084204953601</v>
+        <v>0.3194829436578564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>82.78383700000001</v>
       </c>
       <c r="I8">
-        <v>0.9403788801510861</v>
+        <v>0.9169230158851821</v>
       </c>
       <c r="J8">
-        <v>0.9403788801510863</v>
+        <v>0.916923015885182</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N8">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q8">
-        <v>317.2980388436541</v>
+        <v>352.1567857024717</v>
       </c>
       <c r="R8">
-        <v>2855.682349592887</v>
+        <v>3169.411071322246</v>
       </c>
       <c r="S8">
-        <v>0.09961950528924683</v>
+        <v>0.1008059571144932</v>
       </c>
       <c r="T8">
-        <v>0.09961950528924686</v>
+        <v>0.1008059571144932</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>82.78383700000001</v>
       </c>
       <c r="I9">
-        <v>0.9403788801510861</v>
+        <v>0.9169230158851821</v>
       </c>
       <c r="J9">
-        <v>0.9403788801510863</v>
+        <v>0.916923015885182</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N9">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q9">
-        <v>700.0654176290432</v>
+        <v>468.191109563482</v>
       </c>
       <c r="R9">
-        <v>6300.588758661389</v>
+        <v>4213.719986071338</v>
       </c>
       <c r="S9">
-        <v>0.2197938910321444</v>
+        <v>0.1340211372553771</v>
       </c>
       <c r="T9">
-        <v>0.2197938910321445</v>
+        <v>0.1340211372553771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.027521</v>
+        <v>1.290098666666667</v>
       </c>
       <c r="H10">
-        <v>3.082562999999999</v>
+        <v>3.870296</v>
       </c>
       <c r="I10">
-        <v>0.03501622112460397</v>
+        <v>0.04286783035543951</v>
       </c>
       <c r="J10">
-        <v>0.03501622112460398</v>
+        <v>0.0428678303554395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N10">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q10">
-        <v>32.08841700325799</v>
+        <v>59.2231954263431</v>
       </c>
       <c r="R10">
-        <v>288.7957530293219</v>
+        <v>533.008758837088</v>
       </c>
       <c r="S10">
-        <v>0.01007454139656606</v>
+        <v>0.01695282084774348</v>
       </c>
       <c r="T10">
-        <v>0.01007454139656606</v>
+        <v>0.01695282084774348</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.027521</v>
+        <v>1.290098666666667</v>
       </c>
       <c r="H11">
-        <v>3.082562999999999</v>
+        <v>3.870296</v>
       </c>
       <c r="I11">
-        <v>0.03501622112460397</v>
+        <v>0.04286783035543951</v>
       </c>
       <c r="J11">
-        <v>0.03501622112460398</v>
+        <v>0.0428678303554395</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P11">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q11">
-        <v>41.55889105143601</v>
+        <v>52.17905029055644</v>
       </c>
       <c r="R11">
-        <v>374.030019462924</v>
+        <v>469.6114526150079</v>
       </c>
       <c r="S11">
-        <v>0.01304790972551125</v>
+        <v>0.01493641275539363</v>
       </c>
       <c r="T11">
-        <v>0.01304790972551126</v>
+        <v>0.01493641275539362</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.027521</v>
+        <v>1.290098666666667</v>
       </c>
       <c r="H12">
-        <v>3.082562999999999</v>
+        <v>3.870296</v>
       </c>
       <c r="I12">
-        <v>0.03501622112460397</v>
+        <v>0.04286783035543951</v>
       </c>
       <c r="J12">
-        <v>0.03501622112460398</v>
+        <v>0.0428678303554395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N12">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q12">
-        <v>11.815001937057</v>
+        <v>16.46397471377333</v>
       </c>
       <c r="R12">
-        <v>106.335017433513</v>
+        <v>148.17577242396</v>
       </c>
       <c r="S12">
-        <v>0.003709460834521799</v>
+        <v>0.004712863123225306</v>
       </c>
       <c r="T12">
-        <v>0.003709460834521799</v>
+        <v>0.004712863123225306</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.027521</v>
+        <v>1.290098666666667</v>
       </c>
       <c r="H13">
-        <v>3.082562999999999</v>
+        <v>3.870296</v>
       </c>
       <c r="I13">
-        <v>0.03501622112460397</v>
+        <v>0.04286783035543951</v>
       </c>
       <c r="J13">
-        <v>0.03501622112460398</v>
+        <v>0.0428678303554395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N13">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q13">
-        <v>26.067839232468</v>
+        <v>21.888791873456</v>
       </c>
       <c r="R13">
-        <v>234.610553092212</v>
+        <v>196.999126861104</v>
       </c>
       <c r="S13">
-        <v>0.008184309168004862</v>
+        <v>0.006265733629077095</v>
       </c>
       <c r="T13">
-        <v>0.008184309168004866</v>
+        <v>0.006265733629077096</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.082722</v>
+        <v>0.05930433333333333</v>
       </c>
       <c r="H14">
-        <v>0.248166</v>
+        <v>0.177913</v>
       </c>
       <c r="I14">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="J14">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N14">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q14">
-        <v>2.583322415156</v>
+        <v>2.722421325884889</v>
       </c>
       <c r="R14">
-        <v>23.249901736404</v>
+        <v>24.501791932964</v>
       </c>
       <c r="S14">
-        <v>0.0008110648963931029</v>
+        <v>0.0007793014321087031</v>
       </c>
       <c r="T14">
-        <v>0.000811064896393103</v>
+        <v>0.0007793014321087031</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.082722</v>
+        <v>0.05930433333333333</v>
       </c>
       <c r="H15">
-        <v>0.248166</v>
+        <v>0.177913</v>
       </c>
       <c r="I15">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="J15">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P15">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q15">
-        <v>3.345756033752001</v>
+        <v>2.398610177191555</v>
       </c>
       <c r="R15">
-        <v>30.11180430376801</v>
+        <v>21.587491594724</v>
       </c>
       <c r="S15">
-        <v>0.001050440028295034</v>
+        <v>0.0006866095002941238</v>
       </c>
       <c r="T15">
-        <v>0.001050440028295035</v>
+        <v>0.0006866095002941238</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.082722</v>
+        <v>0.05930433333333333</v>
       </c>
       <c r="H16">
-        <v>0.248166</v>
+        <v>0.177913</v>
       </c>
       <c r="I16">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="J16">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N16">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q16">
-        <v>0.9511830806740001</v>
+        <v>0.7568297446116666</v>
       </c>
       <c r="R16">
-        <v>8.560647726066001</v>
+        <v>6.811467701505</v>
       </c>
       <c r="S16">
-        <v>0.0002986352776763806</v>
+        <v>0.0002166448294503531</v>
       </c>
       <c r="T16">
-        <v>0.0002986352776763807</v>
+        <v>0.0002166448294503531</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.082722</v>
+        <v>0.05930433333333333</v>
       </c>
       <c r="H17">
-        <v>0.248166</v>
+        <v>0.177913</v>
       </c>
       <c r="I17">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="J17">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N17">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q17">
-        <v>2.098627470376</v>
+        <v>1.006202272018</v>
       </c>
       <c r="R17">
-        <v>18.887647233384</v>
+        <v>9.055820448161999</v>
       </c>
       <c r="S17">
-        <v>0.0006588891351083807</v>
+        <v>0.0002880284782223358</v>
       </c>
       <c r="T17">
-        <v>0.0006588891351083809</v>
+        <v>0.0002880284782223358</v>
       </c>
     </row>
   </sheetData>
